--- a/public/att_summary.xlsx
+++ b/public/att_summary.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\hris_payroll\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A349F5D0-6E9F-4822-83D1-4395A37BF20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280F9F01-3256-4888-B333-50509B941861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{867522E6-A18C-481C-9BF2-C0293426A4EC}"/>
+    <workbookView xWindow="1560" yWindow="2100" windowWidth="21600" windowHeight="11385" xr2:uid="{867522E6-A18C-481C-9BF2-C0293426A4EC}"/>
   </bookViews>
   <sheets>
     <sheet name="att_summary" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -519,7 +518,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C07DDB7-405C-493B-B105-EE70A0BAEE92}">
   <dimension ref="A1:AR1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -704,16 +705,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F889A17F-52CF-4D1C-8EC5-230AE84BB3E7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>